--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Col4a2-Cd93.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Col4a2-Cd93.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>241.2872163333334</v>
+        <v>273.7846883333333</v>
       </c>
       <c r="H2">
-        <v>723.8616490000001</v>
+        <v>821.354065</v>
       </c>
       <c r="I2">
-        <v>0.8139476876902633</v>
+        <v>0.8244324628389421</v>
       </c>
       <c r="J2">
-        <v>0.8139476876902633</v>
+        <v>0.8244324628389421</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>229.5846506666667</v>
+        <v>211.2725676666666</v>
       </c>
       <c r="N2">
-        <v>688.753952</v>
+        <v>633.8177029999999</v>
       </c>
       <c r="O2">
-        <v>0.5033187360873315</v>
+        <v>0.6324644927232657</v>
       </c>
       <c r="P2">
-        <v>0.5033187360873315</v>
+        <v>0.6324644927232657</v>
       </c>
       <c r="Q2">
-        <v>55395.84127222077</v>
+        <v>57843.19409200141</v>
       </c>
       <c r="R2">
-        <v>498562.5714499869</v>
+        <v>520588.7468280126</v>
       </c>
       <c r="S2">
-        <v>0.4096751214094693</v>
+        <v>0.521424259394024</v>
       </c>
       <c r="T2">
-        <v>0.4096751214094693</v>
+        <v>0.521424259394024</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>241.2872163333334</v>
+        <v>273.7846883333333</v>
       </c>
       <c r="H3">
-        <v>723.8616490000001</v>
+        <v>821.354065</v>
       </c>
       <c r="I3">
-        <v>0.8139476876902633</v>
+        <v>0.8244324628389421</v>
       </c>
       <c r="J3">
-        <v>0.8139476876902633</v>
+        <v>0.8244324628389421</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>135.7283196666666</v>
+        <v>59.36675400000001</v>
       </c>
       <c r="N3">
-        <v>407.1849589999999</v>
+        <v>178.100262</v>
       </c>
       <c r="O3">
-        <v>0.2975573763642838</v>
+        <v>0.1777200152765546</v>
       </c>
       <c r="P3">
-        <v>0.2975573763642838</v>
+        <v>0.1777200152765546</v>
       </c>
       <c r="Q3">
-        <v>32749.50842997082</v>
+        <v>16253.70824125167</v>
       </c>
       <c r="R3">
-        <v>294745.5758697374</v>
+        <v>146283.3741712651</v>
       </c>
       <c r="S3">
-        <v>0.2421961384468902</v>
+        <v>0.1465181498902243</v>
       </c>
       <c r="T3">
-        <v>0.2421961384468902</v>
+        <v>0.1465181498902243</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>241.2872163333334</v>
+        <v>273.7846883333333</v>
       </c>
       <c r="H4">
-        <v>723.8616490000001</v>
+        <v>821.354065</v>
       </c>
       <c r="I4">
-        <v>0.8139476876902633</v>
+        <v>0.8244324628389421</v>
       </c>
       <c r="J4">
-        <v>0.8139476876902633</v>
+        <v>0.8244324628389421</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.5972149999999999</v>
+        <v>0.4593846666666666</v>
       </c>
       <c r="N4">
-        <v>1.791645</v>
+        <v>1.378154</v>
       </c>
       <c r="O4">
-        <v>0.001309275241613694</v>
+        <v>0.001375211620595172</v>
       </c>
       <c r="P4">
-        <v>0.001309275241613694</v>
+        <v>0.001375211620595172</v>
       </c>
       <c r="Q4">
-        <v>144.1003449025117</v>
+        <v>125.7724877884455</v>
       </c>
       <c r="R4">
-        <v>1296.903104122605</v>
+        <v>1131.95239009601</v>
       </c>
       <c r="S4">
-        <v>0.001065681555461577</v>
+        <v>0.001133769103292011</v>
       </c>
       <c r="T4">
-        <v>0.001065681555461577</v>
+        <v>0.001133769103292011</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>241.2872163333334</v>
+        <v>273.7846883333333</v>
       </c>
       <c r="H5">
-        <v>723.8616490000001</v>
+        <v>821.354065</v>
       </c>
       <c r="I5">
-        <v>0.8139476876902633</v>
+        <v>0.8244324628389421</v>
       </c>
       <c r="J5">
-        <v>0.8139476876902633</v>
+        <v>0.8244324628389421</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>90.23148833333333</v>
+        <v>62.94782133333333</v>
       </c>
       <c r="N5">
-        <v>270.694465</v>
+        <v>188.843464</v>
       </c>
       <c r="O5">
-        <v>0.197814612306771</v>
+        <v>0.1884402803795846</v>
       </c>
       <c r="P5">
-        <v>0.197814612306771</v>
+        <v>0.1884402803795846</v>
       </c>
       <c r="Q5">
-        <v>21771.70464556364</v>
+        <v>17234.14964500902</v>
       </c>
       <c r="R5">
-        <v>195945.3418100728</v>
+        <v>155107.3468050811</v>
       </c>
       <c r="S5">
-        <v>0.1610107462784422</v>
+        <v>0.1553562844514017</v>
       </c>
       <c r="T5">
-        <v>0.1610107462784421</v>
+        <v>0.1553562844514017</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>42.36118633333334</v>
+        <v>42.36118633333333</v>
       </c>
       <c r="H6">
         <v>127.083559</v>
       </c>
       <c r="I6">
-        <v>0.1428993636206567</v>
+        <v>0.1275598624238963</v>
       </c>
       <c r="J6">
-        <v>0.1428993636206567</v>
+        <v>0.1275598624238963</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>229.5846506666667</v>
+        <v>211.2725676666666</v>
       </c>
       <c r="N6">
-        <v>688.753952</v>
+        <v>633.8177029999999</v>
       </c>
       <c r="O6">
-        <v>0.5033187360873315</v>
+        <v>0.6324644927232657</v>
       </c>
       <c r="P6">
-        <v>0.5033187360873315</v>
+        <v>0.6324644927232657</v>
       </c>
       <c r="Q6">
-        <v>9725.478166163908</v>
+        <v>8949.756606049441</v>
       </c>
       <c r="R6">
-        <v>87529.30349547518</v>
+        <v>80547.80945444497</v>
       </c>
       <c r="S6">
-        <v>0.0719239270852329</v>
+        <v>0.08067708367977913</v>
       </c>
       <c r="T6">
-        <v>0.0719239270852329</v>
+        <v>0.08067708367977915</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>42.36118633333334</v>
+        <v>42.36118633333333</v>
       </c>
       <c r="H7">
         <v>127.083559</v>
       </c>
       <c r="I7">
-        <v>0.1428993636206567</v>
+        <v>0.1275598624238963</v>
       </c>
       <c r="J7">
-        <v>0.1428993636206567</v>
+        <v>0.1275598624238963</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>135.7283196666666</v>
+        <v>59.36675400000001</v>
       </c>
       <c r="N7">
-        <v>407.1849589999999</v>
+        <v>178.100262</v>
       </c>
       <c r="O7">
-        <v>0.2975573763642838</v>
+        <v>0.1777200152765546</v>
       </c>
       <c r="P7">
-        <v>0.2975573763642838</v>
+        <v>0.1777200152765546</v>
       </c>
       <c r="Q7">
-        <v>5749.612640109897</v>
+        <v>2514.846128199162</v>
       </c>
       <c r="R7">
-        <v>51746.51376098907</v>
+        <v>22633.61515379246</v>
       </c>
       <c r="S7">
-        <v>0.04252075972308837</v>
+        <v>0.02266994069865005</v>
       </c>
       <c r="T7">
-        <v>0.04252075972308837</v>
+        <v>0.02266994069865005</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>42.36118633333334</v>
+        <v>42.36118633333333</v>
       </c>
       <c r="H8">
         <v>127.083559</v>
       </c>
       <c r="I8">
-        <v>0.1428993636206567</v>
+        <v>0.1275598624238963</v>
       </c>
       <c r="J8">
-        <v>0.1428993636206567</v>
+        <v>0.1275598624238963</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.5972149999999999</v>
+        <v>0.4593846666666666</v>
       </c>
       <c r="N8">
-        <v>1.791645</v>
+        <v>1.378154</v>
       </c>
       <c r="O8">
-        <v>0.001309275241613694</v>
+        <v>0.001375211620595172</v>
       </c>
       <c r="P8">
-        <v>0.001309275241613694</v>
+        <v>0.001375211620595172</v>
       </c>
       <c r="Q8">
-        <v>25.29873589606166</v>
+        <v>19.46007946334288</v>
       </c>
       <c r="R8">
-        <v>227.688623064555</v>
+        <v>175.140715170086</v>
       </c>
       <c r="S8">
-        <v>0.0001870945988308784</v>
+        <v>0.0001754218051268636</v>
       </c>
       <c r="T8">
-        <v>0.0001870945988308784</v>
+        <v>0.0001754218051268637</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>42.36118633333334</v>
+        <v>42.36118633333333</v>
       </c>
       <c r="H9">
         <v>127.083559</v>
       </c>
       <c r="I9">
-        <v>0.1428993636206567</v>
+        <v>0.1275598624238963</v>
       </c>
       <c r="J9">
-        <v>0.1428993636206567</v>
+        <v>0.1275598624238963</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>90.23148833333333</v>
+        <v>62.94782133333333</v>
       </c>
       <c r="N9">
-        <v>270.694465</v>
+        <v>188.843464</v>
       </c>
       <c r="O9">
-        <v>0.197814612306771</v>
+        <v>0.1884402803795846</v>
       </c>
       <c r="P9">
-        <v>0.197814612306771</v>
+        <v>0.1884402803795846</v>
       </c>
       <c r="Q9">
-        <v>3822.312890422326</v>
+        <v>2666.544388778708</v>
       </c>
       <c r="R9">
-        <v>34400.81601380093</v>
+        <v>23998.89949900837</v>
       </c>
       <c r="S9">
-        <v>0.0282675822135045</v>
+        <v>0.02403741624034026</v>
       </c>
       <c r="T9">
-        <v>0.02826758221350449</v>
+        <v>0.02403741624034026</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.281292333333333</v>
+        <v>1.581929</v>
       </c>
       <c r="H10">
-        <v>3.843877</v>
+        <v>4.745787</v>
       </c>
       <c r="I10">
-        <v>0.004322255226862814</v>
+        <v>0.004763573994753449</v>
       </c>
       <c r="J10">
-        <v>0.004322255226862814</v>
+        <v>0.00476357399475345</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>229.5846506666667</v>
+        <v>211.2725676666666</v>
       </c>
       <c r="N10">
-        <v>688.753952</v>
+        <v>633.8177029999999</v>
       </c>
       <c r="O10">
-        <v>0.5033187360873315</v>
+        <v>0.6324644927232657</v>
       </c>
       <c r="P10">
-        <v>0.5033187360873315</v>
+        <v>0.6324644927232657</v>
       </c>
       <c r="Q10">
-        <v>294.1650527502115</v>
+        <v>334.2182016963623</v>
       </c>
       <c r="R10">
-        <v>2647.485474751904</v>
+        <v>3007.963815267261</v>
       </c>
       <c r="S10">
-        <v>0.002175472037831454</v>
+        <v>0.00301279141014148</v>
       </c>
       <c r="T10">
-        <v>0.002175472037831454</v>
+        <v>0.003012791410141481</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.281292333333333</v>
+        <v>1.581929</v>
       </c>
       <c r="H11">
-        <v>3.843877</v>
+        <v>4.745787</v>
       </c>
       <c r="I11">
-        <v>0.004322255226862814</v>
+        <v>0.004763573994753449</v>
       </c>
       <c r="J11">
-        <v>0.004322255226862814</v>
+        <v>0.00476357399475345</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>135.7283196666666</v>
+        <v>59.36675400000001</v>
       </c>
       <c r="N11">
-        <v>407.1849589999999</v>
+        <v>178.100262</v>
       </c>
       <c r="O11">
-        <v>0.2975573763642838</v>
+        <v>0.1777200152765546</v>
       </c>
       <c r="P11">
-        <v>0.2975573763642838</v>
+        <v>0.1777200152765546</v>
       </c>
       <c r="Q11">
-        <v>173.9076554051158</v>
+        <v>93.91398978846601</v>
       </c>
       <c r="R11">
-        <v>1565.168898646043</v>
+        <v>845.2259080961941</v>
       </c>
       <c r="S11">
-        <v>0.001286118925282111</v>
+        <v>0.0008465824431185811</v>
       </c>
       <c r="T11">
-        <v>0.001286118925282111</v>
+        <v>0.0008465824431185811</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.281292333333333</v>
+        <v>1.581929</v>
       </c>
       <c r="H12">
-        <v>3.843877</v>
+        <v>4.745787</v>
       </c>
       <c r="I12">
-        <v>0.004322255226862814</v>
+        <v>0.004763573994753449</v>
       </c>
       <c r="J12">
-        <v>0.004322255226862814</v>
+        <v>0.00476357399475345</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.5972149999999999</v>
+        <v>0.4593846666666666</v>
       </c>
       <c r="N12">
-        <v>1.791645</v>
+        <v>1.378154</v>
       </c>
       <c r="O12">
-        <v>0.001309275241613694</v>
+        <v>0.001375211620595172</v>
       </c>
       <c r="P12">
-        <v>0.001309275241613694</v>
+        <v>0.001375211620595172</v>
       </c>
       <c r="Q12">
-        <v>0.7652070008516666</v>
+        <v>0.7267139263553332</v>
       </c>
       <c r="R12">
-        <v>6.886863007665</v>
+        <v>6.540425337197999</v>
       </c>
       <c r="S12">
-        <v>5.659021756466864E-06</v>
+        <v>6.550922313149909E-06</v>
       </c>
       <c r="T12">
-        <v>5.659021756466864E-06</v>
+        <v>6.55092231314991E-06</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.281292333333333</v>
+        <v>1.581929</v>
       </c>
       <c r="H13">
-        <v>3.843877</v>
+        <v>4.745787</v>
       </c>
       <c r="I13">
-        <v>0.004322255226862814</v>
+        <v>0.004763573994753449</v>
       </c>
       <c r="J13">
-        <v>0.004322255226862814</v>
+        <v>0.00476357399475345</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>90.23148833333333</v>
+        <v>62.94782133333333</v>
       </c>
       <c r="N13">
-        <v>270.694465</v>
+        <v>188.843464</v>
       </c>
       <c r="O13">
-        <v>0.197814612306771</v>
+        <v>0.1884402803795846</v>
       </c>
       <c r="P13">
-        <v>0.197814612306771</v>
+        <v>0.1884402803795846</v>
       </c>
       <c r="Q13">
-        <v>115.6129142267561</v>
+        <v>99.57898405401866</v>
       </c>
       <c r="R13">
-        <v>1040.516228040805</v>
+        <v>896.2108564861679</v>
       </c>
       <c r="S13">
-        <v>0.0008550052419927822</v>
+        <v>0.0008976492191802379</v>
       </c>
       <c r="T13">
-        <v>0.0008550052419927821</v>
+        <v>0.0008976492191802379</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>10.18278666666667</v>
+        <v>13.26179066666667</v>
       </c>
       <c r="H14">
-        <v>30.54836</v>
+        <v>39.785372</v>
       </c>
       <c r="I14">
-        <v>0.03435016486794112</v>
+        <v>0.03993448577249507</v>
       </c>
       <c r="J14">
-        <v>0.03435016486794112</v>
+        <v>0.03993448577249507</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>229.5846506666667</v>
+        <v>211.2725676666666</v>
       </c>
       <c r="N14">
-        <v>688.753952</v>
+        <v>633.8177029999999</v>
       </c>
       <c r="O14">
-        <v>0.5033187360873315</v>
+        <v>0.6324644927232657</v>
       </c>
       <c r="P14">
-        <v>0.5033187360873315</v>
+        <v>0.6324644927232657</v>
       </c>
       <c r="Q14">
-        <v>2337.811519679858</v>
+        <v>2801.852566004502</v>
       </c>
       <c r="R14">
-        <v>21040.30367711872</v>
+        <v>25216.67309404051</v>
       </c>
       <c r="S14">
-        <v>0.01728908156572358</v>
+        <v>0.02525714428626556</v>
       </c>
       <c r="T14">
-        <v>0.01728908156572358</v>
+        <v>0.02525714428626556</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>10.18278666666667</v>
+        <v>13.26179066666667</v>
       </c>
       <c r="H15">
-        <v>30.54836</v>
+        <v>39.785372</v>
       </c>
       <c r="I15">
-        <v>0.03435016486794112</v>
+        <v>0.03993448577249507</v>
       </c>
       <c r="J15">
-        <v>0.03435016486794112</v>
+        <v>0.03993448577249507</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>135.7283196666666</v>
+        <v>59.36675400000001</v>
       </c>
       <c r="N15">
-        <v>407.1849589999999</v>
+        <v>178.100262</v>
       </c>
       <c r="O15">
-        <v>0.2975573763642838</v>
+        <v>0.1777200152765546</v>
       </c>
       <c r="P15">
-        <v>0.2975573763642838</v>
+        <v>0.1777200152765546</v>
       </c>
       <c r="Q15">
-        <v>1382.092523790804</v>
+        <v>787.3094641074962</v>
       </c>
       <c r="R15">
-        <v>12438.83271411724</v>
+        <v>7085.785176967465</v>
       </c>
       <c r="S15">
-        <v>0.01022114493578515</v>
+        <v>0.007097157421549176</v>
       </c>
       <c r="T15">
-        <v>0.01022114493578515</v>
+        <v>0.007097157421549174</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>10.18278666666667</v>
+        <v>13.26179066666667</v>
       </c>
       <c r="H16">
-        <v>30.54836</v>
+        <v>39.785372</v>
       </c>
       <c r="I16">
-        <v>0.03435016486794112</v>
+        <v>0.03993448577249507</v>
       </c>
       <c r="J16">
-        <v>0.03435016486794112</v>
+        <v>0.03993448577249507</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.5972149999999999</v>
+        <v>0.4593846666666666</v>
       </c>
       <c r="N16">
-        <v>1.791645</v>
+        <v>1.378154</v>
       </c>
       <c r="O16">
-        <v>0.001309275241613694</v>
+        <v>0.001375211620595172</v>
       </c>
       <c r="P16">
-        <v>0.001309275241613694</v>
+        <v>0.001375211620595172</v>
       </c>
       <c r="Q16">
-        <v>6.081312939133332</v>
+        <v>6.092263284809778</v>
       </c>
       <c r="R16">
-        <v>54.7318164522</v>
+        <v>54.830369563288</v>
       </c>
       <c r="S16">
-        <v>4.497382040694385E-05</v>
+        <v>5.491836889682778E-05</v>
       </c>
       <c r="T16">
-        <v>4.497382040694385E-05</v>
+        <v>5.491836889682778E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>10.18278666666667</v>
+        <v>13.26179066666667</v>
       </c>
       <c r="H17">
-        <v>30.54836</v>
+        <v>39.785372</v>
       </c>
       <c r="I17">
-        <v>0.03435016486794112</v>
+        <v>0.03993448577249507</v>
       </c>
       <c r="J17">
-        <v>0.03435016486794112</v>
+        <v>0.03993448577249507</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>90.23148833333333</v>
+        <v>62.94782133333333</v>
       </c>
       <c r="N17">
-        <v>270.694465</v>
+        <v>188.843464</v>
       </c>
       <c r="O17">
-        <v>0.197814612306771</v>
+        <v>0.1884402803795846</v>
       </c>
       <c r="P17">
-        <v>0.197814612306771</v>
+        <v>0.1884402803795846</v>
       </c>
       <c r="Q17">
-        <v>918.8079963141555</v>
+        <v>834.800829445401</v>
       </c>
       <c r="R17">
-        <v>8269.2719668274</v>
+        <v>7513.207465008608</v>
       </c>
       <c r="S17">
-        <v>0.00679496454602544</v>
+        <v>0.007525265695783503</v>
       </c>
       <c r="T17">
-        <v>0.006794964546025439</v>
+        <v>0.007525265695783503</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.328211</v>
+        <v>1.099085666666667</v>
       </c>
       <c r="H18">
-        <v>3.984633</v>
+        <v>3.297257</v>
       </c>
       <c r="I18">
-        <v>0.004480528594276053</v>
+        <v>0.003309614969913056</v>
       </c>
       <c r="J18">
-        <v>0.004480528594276054</v>
+        <v>0.003309614969913057</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1550,28 +1550,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>229.5846506666667</v>
+        <v>211.2725676666666</v>
       </c>
       <c r="N18">
-        <v>688.753952</v>
+        <v>633.8177029999999</v>
       </c>
       <c r="O18">
-        <v>0.5033187360873315</v>
+        <v>0.6324644927232657</v>
       </c>
       <c r="P18">
-        <v>0.5033187360873315</v>
+        <v>0.6324644927232657</v>
       </c>
       <c r="Q18">
-        <v>304.9368584466239</v>
+        <v>232.2066508822967</v>
       </c>
       <c r="R18">
-        <v>2744.431726019616</v>
+        <v>2089.859857940671</v>
       </c>
       <c r="S18">
-        <v>0.002255133989074171</v>
+        <v>0.002093213953055387</v>
       </c>
       <c r="T18">
-        <v>0.002255133989074171</v>
+        <v>0.002093213953055388</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.328211</v>
+        <v>1.099085666666667</v>
       </c>
       <c r="H19">
-        <v>3.984633</v>
+        <v>3.297257</v>
       </c>
       <c r="I19">
-        <v>0.004480528594276053</v>
+        <v>0.003309614969913056</v>
       </c>
       <c r="J19">
-        <v>0.004480528594276054</v>
+        <v>0.003309614969913057</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>135.7283196666666</v>
+        <v>59.36675400000001</v>
       </c>
       <c r="N19">
-        <v>407.1849589999999</v>
+        <v>178.100262</v>
       </c>
       <c r="O19">
-        <v>0.2975573763642838</v>
+        <v>0.1777200152765546</v>
       </c>
       <c r="P19">
-        <v>0.2975573763642838</v>
+        <v>0.1777200152765546</v>
       </c>
       <c r="Q19">
-        <v>180.2758471927829</v>
+        <v>65.24914839792601</v>
       </c>
       <c r="R19">
-        <v>1622.482624735047</v>
+        <v>587.242335581334</v>
       </c>
       <c r="S19">
-        <v>0.001333214333237935</v>
+        <v>0.0005881848230124622</v>
       </c>
       <c r="T19">
-        <v>0.001333214333237935</v>
+        <v>0.0005881848230124622</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.328211</v>
+        <v>1.099085666666667</v>
       </c>
       <c r="H20">
-        <v>3.984633</v>
+        <v>3.297257</v>
       </c>
       <c r="I20">
-        <v>0.004480528594276053</v>
+        <v>0.003309614969913056</v>
       </c>
       <c r="J20">
-        <v>0.004480528594276054</v>
+        <v>0.003309614969913057</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.5972149999999999</v>
+        <v>0.4593846666666666</v>
       </c>
       <c r="N20">
-        <v>1.791645</v>
+        <v>1.378154</v>
       </c>
       <c r="O20">
-        <v>0.001309275241613694</v>
+        <v>0.001375211620595172</v>
       </c>
       <c r="P20">
-        <v>0.001309275241613694</v>
+        <v>0.001375211620595172</v>
       </c>
       <c r="Q20">
-        <v>0.7932275323649998</v>
+        <v>0.5049031026197777</v>
       </c>
       <c r="R20">
-        <v>7.139047791284999</v>
+        <v>4.544127923577999</v>
       </c>
       <c r="S20">
-        <v>5.866245157827846E-06</v>
+        <v>4.551420966320176E-06</v>
       </c>
       <c r="T20">
-        <v>5.866245157827847E-06</v>
+        <v>4.551420966320177E-06</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.328211</v>
+        <v>1.099085666666667</v>
       </c>
       <c r="H21">
-        <v>3.984633</v>
+        <v>3.297257</v>
       </c>
       <c r="I21">
-        <v>0.004480528594276053</v>
+        <v>0.003309614969913056</v>
       </c>
       <c r="J21">
-        <v>0.004480528594276054</v>
+        <v>0.003309614969913057</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>90.23148833333333</v>
+        <v>62.94782133333333</v>
       </c>
       <c r="N21">
-        <v>270.694465</v>
+        <v>188.843464</v>
       </c>
       <c r="O21">
-        <v>0.197814612306771</v>
+        <v>0.1884402803795846</v>
       </c>
       <c r="P21">
-        <v>0.197814612306771</v>
+        <v>0.1884402803795846</v>
       </c>
       <c r="Q21">
-        <v>119.846455350705</v>
+        <v>69.18504817536088</v>
       </c>
       <c r="R21">
-        <v>1078.618098156345</v>
+        <v>622.665433578248</v>
       </c>
       <c r="S21">
-        <v>0.0008863140268061192</v>
+        <v>0.0006236647728788869</v>
       </c>
       <c r="T21">
-        <v>0.0008863140268061192</v>
+        <v>0.0006236647728788869</v>
       </c>
     </row>
   </sheetData>
